--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>10 5000</t>
-  </si>
-  <si>
-    <t>10 20 500</t>
-  </si>
-  <si>
-    <t>20 50 1500</t>
-  </si>
-  <si>
-    <t>51 9000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Проводки в формате: "{Дебет} {Кредит} {Сумма}"</t>
+  </si>
+  <si>
+    <t>Начальный баланс в формате: "{Счет} {Сумма}"</t>
+  </si>
+  <si>
+    <t>1 33350000</t>
+  </si>
+  <si>
+    <t>51 5910000</t>
+  </si>
+  <si>
+    <t>10 424000</t>
+  </si>
+  <si>
+    <t>71 12000 Active</t>
+  </si>
+  <si>
+    <t>80 42050000 Passive</t>
+  </si>
+  <si>
+    <t>60 3277000 Passive</t>
+  </si>
+  <si>
+    <t>20 71 11000</t>
+  </si>
+  <si>
+    <t>50 71 1000</t>
+  </si>
+  <si>
+    <t>20 10 60000</t>
+  </si>
+  <si>
+    <t>20 10 244000</t>
+  </si>
+  <si>
+    <t>10 60 3092000</t>
+  </si>
+  <si>
+    <t>60 51 3092000</t>
+  </si>
+  <si>
+    <t>10 20 10000</t>
+  </si>
+  <si>
+    <t>43 20 2000000</t>
+  </si>
+  <si>
+    <t>20 5631000</t>
   </si>
 </sst>
 </file>
@@ -66,10 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -350,32 +393,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
